--- a/Experience.xlsx
+++ b/Experience.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="经验总结" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,10 @@
     <sheet name="jdk安装多个" sheetId="8" r:id="rId4"/>
     <sheet name="SQL Server 2012（Opening sa）" sheetId="9" r:id="rId5"/>
     <sheet name="Buttons is invalid when touched" sheetId="10" r:id="rId6"/>
+    <sheet name="path路径太长(分割)" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>BL ==&gt; UI:只是负责接收信息（比如：需要在UI显示的信息），然后在自己需要的响应（response）中进行数据的处理（为一些变量赋值等）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2840,12 +2842,20 @@
       <t>启动电脑</t>
     </r>
   </si>
+  <si>
+    <t>path路径分割：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">“环境变量”--&gt; “系统变量” --&gt; 新建环境变量（命名为path01）--&gt; 将系统变量中的变量值中“%xxx%”之外的信息复制到path01（path中删除这部分信息），然后将%path01%放在path路径中的最后，以后需要向path中添加新的路径，放在path01中即可。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3003,6 +3013,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3048,7 +3066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3080,6 +3098,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4856,7 +4875,7 @@
   </sheetPr>
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5158,4 +5177,37 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experience.xlsx
+++ b/Experience.xlsx
@@ -5187,7 +5187,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
